--- a/assets/disciplinas/LOT2038.xlsx
+++ b/assets/disciplinas/LOT2038.xlsx
@@ -136,11 +136,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2052 -  Tecnologia de Bebidas Experimental  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2052 -  Tecnologia de Bebidas Experimental  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2038.xlsx
+++ b/assets/disciplinas/LOT2038.xlsx
@@ -136,11 +136,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2052 -  Tecnologia de Bebidas Experimental  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2038.xlsx
+++ b/assets/disciplinas/LOT2038.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao estudante conhecimentos teóricos nos processos tecnológicos de preparação de bebidas fermentadas e destiladas. Conhecimento de matérias-primas, preparação do mosto, tecnologia de fermentação, destilação, maturação.</t>
+    <t>1097178 - João Batista de Almeida e Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1097178 - João Batista de Almeida e Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Generalidades, tipos de bebidas e preparação do mosto; tipos de leveduras; fermentação alcoólica. Acabamento: maturação, filtração, destilação, envelhecimento. Análise química e sensorial.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Generalidades: origem das bebidas; matériasprimas.2. Tipos de bebidas: bebidas fermentadas (cervejas, fermentados de frutas, vinhos, sidras),bebidas destiladas (aguardentes, destilados de vinhos, graspa, pisco, rum, tequila, tiquira,uísque), bebidas retificadas (vodka, gim), bebidas obtidas por misturas (licores, sangria, cooler).3. Preparação do mosto: pé de cuba, características físicoquímicas,correção do mosto.4. Tipos de leveduras: leveduras selvagens, leveduras mistas, leveduras selecionadas.5. Fermentação alcoólica: controle da fermentação, rendimento da fermentação, produtossecundários.6. Acabamento: controle da maturação, destilação em alambiques e em colunas, determinação dograu alcoólico, armazenamento, tipos de madeiras, cor, volume, composição da bebida, legislação.7. Análise química: composição da bebida, legislação.8. Análise sensorial: aromas das bebidas e aceitação.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Avaliação teórica, com provas escritas</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Provas e média aritimética das provas</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculadapela equação: MF = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. AQUARONE, E.; BORZANI, W.; SCHMIDELL, W.; LIMA, U. A. Biotecnologia na Produção deAlimentos. V. 4, Biotecnologia Industrial, São Paulo: Edgard Blücher Ltda. 2001.3. DUVAL, G. Fabricação de Vinhos de Frutas. S.I.A.RJ:Ministério da Agricultura, 1947.4. HOUGH, J.S. Biotecnología de La cerveza y de la malta. Editorial ACRIBA S/A, 1978.5. LIMA, U. A. Aguardente: fabricação em pequenas destilarias. Ed. FEALQ. 1999.6. MARTINELLI FILHO, A. Tecnologia de Vinhos e Vinagres de Frutas. Agroindústria de BaixoInvestimento. Departamento de Tecnologia Rural da ESALQ/USP.7. MORRETO, E. et al. Vinhos e Vinagres: Processamento e Análises. FlorianópolisEditoraUFSC, 1988.8. PACHECO, A. O. Manual do Bar. São Paulo. Editora SENAC, 1996.9. STANIER, R. Y.; INGRAHAM, J. L., WHEELIS, M. L.; PAINTER, P. R. The Microbial World.Englewood Cliffs, New Jersey, 1986.10.Venturini Filho, W.G. Bebidas Alcoólicas. Ciência e Tecnologia. São Paulo. Edgar Blucher Ltda. 2a. Edição. 2016. 575 p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,34 +613,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -663,85 +657,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2038.xlsx
+++ b/assets/disciplinas/LOT2038.xlsx
@@ -127,11 +127,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2052 -  Tecnologia de Bebidas Experimental  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2052 -  Tecnologia de Bebidas Experimental  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2038.xlsx
+++ b/assets/disciplinas/LOT2038.xlsx
@@ -127,11 +127,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOT2052 -  Tecnologia de Bebidas Experimental  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOT2028 -  Tecnologia de Processos Fermentativos  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2038.xlsx
+++ b/assets/disciplinas/LOT2038.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao estudante conhecimentos teóricos nos processos tecnológicos de preparação de bebidas fermentadas e destiladas. Conhecimento de matérias-primas, preparação do mosto, tecnologia de fermentação, destilação, maturação.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1097178 - João Batista de Almeida e Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Generalidades, tipos de bebidas e preparação do mosto; tipos de leveduras; fermentação alcoólica. Acabamento: maturação, filtração, destilação, envelhecimento. Análise química e sensorial.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Generalidades: origem das bebidas; matériasprimas.2. Tipos de bebidas: bebidas fermentadas (cervejas, fermentados de frutas, vinhos, sidras),bebidas destiladas (aguardentes, destilados de vinhos, graspa, pisco, rum, tequila, tiquira,uísque), bebidas retificadas (vodka, gim), bebidas obtidas por misturas (licores, sangria, cooler).3. Preparação do mosto: pé de cuba, características físicoquímicas,correção do mosto.4. Tipos de leveduras: leveduras selvagens, leveduras mistas, leveduras selecionadas.5. Fermentação alcoólica: controle da fermentação, rendimento da fermentação, produtossecundários.6. Acabamento: controle da maturação, destilação em alambiques e em colunas, determinação dograu alcoólico, armazenamento, tipos de madeiras, cor, volume, composição da bebida, legislação.7. Análise química: composição da bebida, legislação.8. Análise sensorial: aromas das bebidas e aceitação.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Avaliação teórica, com provas escritas</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Avaliação teórica, com provas escritas</t>
+    <t>Provas e média aritimética das provas</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Provas e média aritimética das provas</t>
+    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculadapela equação: MF = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculadapela equação: MF = (NF + PR)/2.</t>
+    <t>1. AQUARONE, E.; BORZANI, W.; SCHMIDELL, W.; LIMA, U. A. Biotecnologia na Produção deAlimentos. V. 4, Biotecnologia Industrial, São Paulo: Edgard Blücher Ltda. 2001.3. DUVAL, G. Fabricação de Vinhos de Frutas. S.I.A.RJ:Ministério da Agricultura, 1947.4. HOUGH, J.S. Biotecnología de La cerveza y de la malta. Editorial ACRIBA S/A, 1978.5. LIMA, U. A. Aguardente: fabricação em pequenas destilarias. Ed. FEALQ. 1999.6. MARTINELLI FILHO, A. Tecnologia de Vinhos e Vinagres de Frutas. Agroindústria de BaixoInvestimento. Departamento de Tecnologia Rural da ESALQ/USP.7. MORRETO, E. et al. Vinhos e Vinagres: Processamento e Análises. FlorianópolisEditoraUFSC, 1988.8. PACHECO, A. O. Manual do Bar. São Paulo. Editora SENAC, 1996.9. STANIER, R. Y.; INGRAHAM, J. L., WHEELIS, M. L.; PAINTER, P. R. The Microbial World.Englewood Cliffs, New Jersey, 1986.10.Venturini Filho, W.G. Bebidas Alcoólicas. Ciência e Tecnologia. São Paulo. Edgar Blucher Ltda. 2a. Edição. 2016. 575 p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -488,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -613,37 +622,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -657,74 +663,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
